--- a/Function in Graphite.xlsx
+++ b/Function in Graphite.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Thực tập VNPT\Document\NETWORK\Graphite and collectd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Thực tập VNPT\Document\NETWORK\Gitthub\thomhanu\ghichep-graphite-collectd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -315,19 +315,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -336,9 +330,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -630,561 +621,565 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="23.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="6"/>
-    <col min="6" max="6" width="30.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="9"/>
-    <col min="8" max="8" width="25.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="9"/>
-    <col min="10" max="10" width="25.85546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="6"/>
-    <col min="12" max="12" width="13.5703125" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="5.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="23.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="25.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="6"/>
+    <col min="10" max="10" width="25.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="13.5703125" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" s="5"/>
+      <c r="K6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="7"/>
+      <c r="J7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="5" t="s">
+      <c r="I8" s="7"/>
+      <c r="J8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="5" t="s">
+      <c r="I9" s="7"/>
+      <c r="J9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="5" t="s">
+      <c r="I10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="5" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="5" t="s">
+      <c r="I11" s="7"/>
+      <c r="J11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="5" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="5" t="s">
+      <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="5" t="s">
+      <c r="I12" s="7"/>
+      <c r="J12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="5" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="5" t="s">
+      <c r="I13" s="7"/>
+      <c r="J13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="5" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="5" t="s">
+      <c r="I14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="5" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="I15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="5" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="5" t="s">
+      <c r="I16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="5" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="5" t="s">
+      <c r="I17" s="7"/>
+      <c r="J17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="5" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="5" t="s">
+      <c r="I18" s="7"/>
+      <c r="J18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="5" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="5" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>8</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>12</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
         <v>9</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>19</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>17</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
         <f>SUM(B22:J22)</f>
         <v>65</v>
       </c>

--- a/Function in Graphite.xlsx
+++ b/Function in Graphite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -621,7 +621,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +968,9 @@
       <c r="H12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="J12" s="3" t="s">
         <v>60</v>
       </c>
@@ -990,7 +992,9 @@
       <c r="H13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="J13" s="3" t="s">
         <v>61</v>
       </c>
@@ -1100,7 +1104,9 @@
       <c r="J18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
